--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>TCID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>abdul.khan620@gmail.com</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Another comments</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>EndingTestSuite</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>TestName</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,12 +483,12 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -493,7 +496,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -506,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,98 +520,135 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="E12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>

--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>TCID</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>TestName</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +486,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
